--- a/Clean_data/Pays_all.xlsx
+++ b/Clean_data/Pays_all.xlsx
@@ -478,7 +478,7 @@
         <v>821702</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>14.13</v>
@@ -502,7 +502,7 @@
         <v>7882</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96</v>
+        <v>0.0296</v>
       </c>
       <c r="E3" t="n">
         <v>16.27</v>
@@ -526,7 +526,7 @@
         <v>13445</v>
       </c>
       <c r="D4" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E4" t="n">
         <v>8.119999999999999</v>
@@ -550,7 +550,7 @@
         <v>1001</v>
       </c>
       <c r="D5" t="n">
-        <v>5.89</v>
+        <v>0.0589</v>
       </c>
       <c r="E5" t="n">
         <v>6.73</v>
@@ -574,7 +574,7 @@
         <v>10651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="E6" t="n">
         <v>27.97</v>
@@ -598,7 +598,7 @@
         <v>792</v>
       </c>
       <c r="D7" t="n">
-        <v>6.44</v>
+        <v>0.0644</v>
       </c>
       <c r="E7" t="n">
         <v>10.6</v>
@@ -622,7 +622,7 @@
         <v>1229</v>
       </c>
       <c r="D8" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="E8" t="n">
         <v>15.39</v>
@@ -646,7 +646,7 @@
         <v>333</v>
       </c>
       <c r="D9" t="n">
-        <v>14.41</v>
+        <v>0.1441</v>
       </c>
       <c r="E9" t="n">
         <v>6.16</v>
@@ -670,7 +670,7 @@
         <v>1508</v>
       </c>
       <c r="D10" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="E10" t="n">
         <v>13.5</v>
@@ -694,7 +694,7 @@
         <v>716</v>
       </c>
       <c r="D11" t="n">
-        <v>6.28</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>11.35</v>
@@ -718,7 +718,7 @@
         <v>2082</v>
       </c>
       <c r="D12" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="E12" t="n">
         <v>18.47</v>
@@ -742,7 +742,7 @@
         <v>5391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="E13" t="n">
         <v>24.05</v>
@@ -766,7 +766,7 @@
         <v>5960</v>
       </c>
       <c r="D14" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="E14" t="n">
         <v>26.06</v>
@@ -790,7 +790,7 @@
         <v>1729</v>
       </c>
       <c r="D15" t="n">
-        <v>2.02</v>
+        <v>0.0202</v>
       </c>
       <c r="E15" t="n">
         <v>15.24</v>
@@ -814,7 +814,7 @@
         <v>474</v>
       </c>
       <c r="D16" t="n">
-        <v>6.75</v>
+        <v>0.0675</v>
       </c>
       <c r="E16" t="n">
         <v>10.41</v>
@@ -838,7 +838,7 @@
         <v>1199</v>
       </c>
       <c r="D17" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="E17" t="n">
         <v>13.65</v>
@@ -862,7 +862,7 @@
         <v>611</v>
       </c>
       <c r="D18" t="n">
-        <v>4.91</v>
+        <v>0.0491</v>
       </c>
       <c r="E18" t="n">
         <v>7.81</v>
@@ -886,7 +886,7 @@
         <v>488</v>
       </c>
       <c r="D19" t="n">
-        <v>6.15</v>
+        <v>0.0615</v>
       </c>
       <c r="E19" t="n">
         <v>6.65</v>
@@ -910,7 +910,7 @@
         <v>3171</v>
       </c>
       <c r="D20" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="E20" t="n">
         <v>14.3</v>
@@ -934,7 +934,7 @@
         <v>370</v>
       </c>
       <c r="D21" t="n">
-        <v>7.84</v>
+        <v>0.0784</v>
       </c>
       <c r="E21" t="n">
         <v>9.859999999999999</v>
@@ -958,7 +958,7 @@
         <v>885</v>
       </c>
       <c r="D22" t="n">
-        <v>3.16</v>
+        <v>0.0316</v>
       </c>
       <c r="E22" t="n">
         <v>11.13</v>
@@ -982,7 +982,7 @@
         <v>585</v>
       </c>
       <c r="D23" t="n">
-        <v>4.79</v>
+        <v>0.0479</v>
       </c>
       <c r="E23" t="n">
         <v>13.46</v>
@@ -1006,7 +1006,7 @@
         <v>833</v>
       </c>
       <c r="D24" t="n">
-        <v>3.24</v>
+        <v>0.0324</v>
       </c>
       <c r="E24" t="n">
         <v>12.6</v>
@@ -1030,7 +1030,7 @@
         <v>221</v>
       </c>
       <c r="D25" t="n">
-        <v>12.22</v>
+        <v>0.1222</v>
       </c>
       <c r="E25" t="n">
         <v>6.71</v>
@@ -1054,7 +1054,7 @@
         <v>1402</v>
       </c>
       <c r="D26" t="n">
-        <v>1.85</v>
+        <v>0.0185</v>
       </c>
       <c r="E26" t="n">
         <v>11.51</v>
@@ -1078,7 +1078,7 @@
         <v>386</v>
       </c>
       <c r="D27" t="n">
-        <v>6.74</v>
+        <v>0.0674</v>
       </c>
       <c r="E27" t="n">
         <v>16.83</v>
@@ -1102,7 +1102,7 @@
         <v>209</v>
       </c>
       <c r="D28" t="n">
-        <v>12.44</v>
+        <v>0.1244</v>
       </c>
       <c r="E28" t="n">
         <v>5.31</v>
@@ -1126,7 +1126,7 @@
         <v>189</v>
       </c>
       <c r="D29" t="n">
-        <v>13.23</v>
+        <v>0.1323</v>
       </c>
       <c r="E29" t="n">
         <v>7.25</v>
@@ -1150,7 +1150,7 @@
         <v>360</v>
       </c>
       <c r="D30" t="n">
-        <v>6.39</v>
+        <v>0.0639</v>
       </c>
       <c r="E30" t="n">
         <v>19.89</v>
@@ -1174,7 +1174,7 @@
         <v>262</v>
       </c>
       <c r="D31" t="n">
-        <v>8.779999999999999</v>
+        <v>0.0878</v>
       </c>
       <c r="E31" t="n">
         <v>13.39</v>
@@ -1198,7 +1198,7 @@
         <v>181</v>
       </c>
       <c r="D32" t="n">
-        <v>12.71</v>
+        <v>0.1271</v>
       </c>
       <c r="E32" t="n">
         <v>5.72</v>
@@ -1222,7 +1222,7 @@
         <v>647</v>
       </c>
       <c r="D33" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="E33" t="n">
         <v>17.11</v>
@@ -1246,7 +1246,7 @@
         <v>1028</v>
       </c>
       <c r="D34" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="E34" t="n">
         <v>20.38</v>
@@ -1270,7 +1270,7 @@
         <v>382</v>
       </c>
       <c r="D35" t="n">
-        <v>5.5</v>
+        <v>0.055</v>
       </c>
       <c r="E35" t="n">
         <v>10.68</v>
@@ -1294,7 +1294,7 @@
         <v>649</v>
       </c>
       <c r="D36" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="E36" t="n">
         <v>23.11</v>
@@ -1318,7 +1318,7 @@
         <v>440</v>
       </c>
       <c r="D37" t="n">
-        <v>4.55</v>
+        <v>0.0455</v>
       </c>
       <c r="E37" t="n">
         <v>11.2</v>
@@ -1342,7 +1342,7 @@
         <v>7026</v>
       </c>
       <c r="D38" t="n">
-        <v>0.27</v>
+        <v>0.0027</v>
       </c>
       <c r="E38" t="n">
         <v>26.31</v>
@@ -1366,7 +1366,7 @@
         <v>116</v>
       </c>
       <c r="D39" t="n">
-        <v>15.52</v>
+        <v>0.1552</v>
       </c>
       <c r="E39" t="n">
         <v>8.550000000000001</v>
@@ -1390,7 +1390,7 @@
         <v>752</v>
       </c>
       <c r="D40" t="n">
-        <v>2.26</v>
+        <v>0.0226</v>
       </c>
       <c r="E40" t="n">
         <v>24.58</v>
@@ -1414,7 +1414,7 @@
         <v>745</v>
       </c>
       <c r="D41" t="n">
-        <v>2.28</v>
+        <v>0.0228</v>
       </c>
       <c r="E41" t="n">
         <v>14.92</v>
@@ -1438,7 +1438,7 @@
         <v>211</v>
       </c>
       <c r="D42" t="n">
-        <v>8.06</v>
+        <v>0.0806</v>
       </c>
       <c r="E42" t="n">
         <v>8.68</v>
@@ -1462,7 +1462,7 @@
         <v>232</v>
       </c>
       <c r="D43" t="n">
-        <v>6.9</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>7.37</v>
@@ -1486,7 +1486,7 @@
         <v>210</v>
       </c>
       <c r="D44" t="n">
-        <v>7.62</v>
+        <v>0.0762</v>
       </c>
       <c r="E44" t="n">
         <v>4.87</v>
@@ -1510,7 +1510,7 @@
         <v>133</v>
       </c>
       <c r="D45" t="n">
-        <v>12.03</v>
+        <v>0.1203</v>
       </c>
       <c r="E45" t="n">
         <v>5.12</v>
@@ -1534,7 +1534,7 @@
         <v>281</v>
       </c>
       <c r="D46" t="n">
-        <v>5.34</v>
+        <v>0.0534</v>
       </c>
       <c r="E46" t="n">
         <v>10.84</v>
@@ -1558,7 +1558,7 @@
         <v>120</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="E47" t="n">
         <v>6.63</v>
@@ -1582,7 +1582,7 @@
         <v>833</v>
       </c>
       <c r="D48" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="E48" t="n">
         <v>21.45</v>
@@ -1606,7 +1606,7 @@
         <v>445</v>
       </c>
       <c r="D49" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="E49" t="n">
         <v>32.21</v>
@@ -1630,7 +1630,7 @@
         <v>328</v>
       </c>
       <c r="D50" t="n">
-        <v>4.27</v>
+        <v>0.0427</v>
       </c>
       <c r="E50" t="n">
         <v>18.61</v>
@@ -1654,7 +1654,7 @@
         <v>328</v>
       </c>
       <c r="D51" t="n">
-        <v>3.96</v>
+        <v>0.0396</v>
       </c>
       <c r="E51" t="n">
         <v>15.18</v>
@@ -1678,7 +1678,7 @@
         <v>24709</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="E52" t="n">
         <v>30.63</v>
@@ -1702,7 +1702,7 @@
         <v>922</v>
       </c>
       <c r="D53" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E53" t="n">
         <v>20.69</v>
@@ -1726,7 +1726,7 @@
         <v>369</v>
       </c>
       <c r="D54" t="n">
-        <v>3.25</v>
+        <v>0.0325</v>
       </c>
       <c r="E54" t="n">
         <v>7.83</v>
@@ -1750,7 +1750,7 @@
         <v>157</v>
       </c>
       <c r="D55" t="n">
-        <v>7.64</v>
+        <v>0.0764</v>
       </c>
       <c r="E55" t="n">
         <v>14.1</v>
@@ -1774,7 +1774,7 @@
         <v>622</v>
       </c>
       <c r="D56" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="E56" t="n">
         <v>12.82</v>
@@ -1798,7 +1798,7 @@
         <v>307</v>
       </c>
       <c r="D57" t="n">
-        <v>3.58</v>
+        <v>0.0358</v>
       </c>
       <c r="E57" t="n">
         <v>10.89</v>
@@ -1822,7 +1822,7 @@
         <v>210</v>
       </c>
       <c r="D58" t="n">
-        <v>5.24</v>
+        <v>0.0524</v>
       </c>
       <c r="E58" t="n">
         <v>5.24</v>
@@ -1846,7 +1846,7 @@
         <v>147</v>
       </c>
       <c r="D59" t="n">
-        <v>7.48</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>7.88</v>
@@ -1870,7 +1870,7 @@
         <v>99</v>
       </c>
       <c r="D60" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E60" t="n">
         <v>6.15</v>
@@ -1894,7 +1894,7 @@
         <v>62</v>
       </c>
       <c r="D61" t="n">
-        <v>17.74</v>
+        <v>0.1774</v>
       </c>
       <c r="E61" t="n">
         <v>8.08</v>
@@ -1918,7 +1918,7 @@
         <v>344</v>
       </c>
       <c r="D62" t="n">
-        <v>2.91</v>
+        <v>0.0291</v>
       </c>
       <c r="E62" t="n">
         <v>18.11</v>
@@ -1942,7 +1942,7 @@
         <v>173</v>
       </c>
       <c r="D63" t="n">
-        <v>5.78</v>
+        <v>0.0578</v>
       </c>
       <c r="E63" t="n">
         <v>21.25</v>
@@ -1966,7 +1966,7 @@
         <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E64" t="n">
         <v>9.44</v>
@@ -1990,7 +1990,7 @@
         <v>319</v>
       </c>
       <c r="D65" t="n">
-        <v>2.82</v>
+        <v>0.0282</v>
       </c>
       <c r="E65" t="n">
         <v>16.11</v>
@@ -2014,7 +2014,7 @@
         <v>302</v>
       </c>
       <c r="D66" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="E66" t="n">
         <v>21.08</v>
@@ -2038,7 +2038,7 @@
         <v>272</v>
       </c>
       <c r="D67" t="n">
-        <v>3.31</v>
+        <v>0.0331</v>
       </c>
       <c r="E67" t="n">
         <v>9.09</v>
@@ -2062,7 +2062,7 @@
         <v>953</v>
       </c>
       <c r="D68" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="E68" t="n">
         <v>18.82</v>
@@ -2086,7 +2086,7 @@
         <v>671</v>
       </c>
       <c r="D69" t="n">
-        <v>1.19</v>
+        <v>0.0119</v>
       </c>
       <c r="E69" t="n">
         <v>19.82</v>
@@ -2110,7 +2110,7 @@
         <v>216</v>
       </c>
       <c r="D70" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E70" t="n">
         <v>11.55</v>
@@ -2134,7 +2134,7 @@
         <v>174</v>
       </c>
       <c r="D71" t="n">
-        <v>4.6</v>
+        <v>0.046</v>
       </c>
       <c r="E71" t="n">
         <v>8.859999999999999</v>
@@ -2158,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="D72" t="n">
-        <v>10.13</v>
+        <v>0.1013</v>
       </c>
       <c r="E72" t="n">
         <v>12.63</v>
@@ -2182,7 +2182,7 @@
         <v>12570</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E73" t="n">
         <v>28.25</v>
@@ -2206,7 +2206,7 @@
         <v>318</v>
       </c>
       <c r="D74" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="E74" t="n">
         <v>30.41</v>
@@ -2230,7 +2230,7 @@
         <v>215</v>
       </c>
       <c r="D75" t="n">
-        <v>3.26</v>
+        <v>0.0326</v>
       </c>
       <c r="E75" t="n">
         <v>10.7</v>
@@ -2254,7 +2254,7 @@
         <v>212</v>
       </c>
       <c r="D76" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="E76" t="n">
         <v>7.36</v>
@@ -2278,7 +2278,7 @@
         <v>182</v>
       </c>
       <c r="D77" t="n">
-        <v>3.85</v>
+        <v>0.0385</v>
       </c>
       <c r="E77" t="n">
         <v>13.08</v>
@@ -2302,7 +2302,7 @@
         <v>106</v>
       </c>
       <c r="D78" t="n">
-        <v>5.66</v>
+        <v>0.0566</v>
       </c>
       <c r="E78" t="n">
         <v>15.37</v>
@@ -2326,7 +2326,7 @@
         <v>85</v>
       </c>
       <c r="D79" t="n">
-        <v>7.06</v>
+        <v>0.0706</v>
       </c>
       <c r="E79" t="n">
         <v>6.45</v>
@@ -2350,7 +2350,7 @@
         <v>68</v>
       </c>
       <c r="D80" t="n">
-        <v>8.82</v>
+        <v>0.0882</v>
       </c>
       <c r="E80" t="n">
         <v>4.29</v>
@@ -2374,7 +2374,7 @@
         <v>67</v>
       </c>
       <c r="D81" t="n">
-        <v>8.960000000000001</v>
+        <v>0.0896</v>
       </c>
       <c r="E81" t="n">
         <v>12.04</v>
@@ -2398,7 +2398,7 @@
         <v>61</v>
       </c>
       <c r="D82" t="n">
-        <v>9.84</v>
+        <v>0.0984</v>
       </c>
       <c r="E82" t="n">
         <v>18.54</v>
@@ -2422,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E83" t="n">
         <v>4</v>
@@ -2446,7 +2446,7 @@
         <v>128</v>
       </c>
       <c r="D84" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="E84" t="n">
         <v>24.6</v>
@@ -2470,7 +2470,7 @@
         <v>82</v>
       </c>
       <c r="D85" t="n">
-        <v>6.1</v>
+        <v>0.061</v>
       </c>
       <c r="E85" t="n">
         <v>6</v>
@@ -2494,7 +2494,7 @@
         <v>55</v>
       </c>
       <c r="D86" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E86" t="n">
         <v>5.16</v>
@@ -2518,7 +2518,7 @@
         <v>53</v>
       </c>
       <c r="D87" t="n">
-        <v>9.43</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="E87" t="n">
         <v>9.51</v>
@@ -2542,7 +2542,7 @@
         <v>143</v>
       </c>
       <c r="D88" t="n">
-        <v>2.8</v>
+        <v>0.028</v>
       </c>
       <c r="E88" t="n">
         <v>8.92</v>
@@ -2566,7 +2566,7 @@
         <v>71</v>
       </c>
       <c r="D89" t="n">
-        <v>5.63</v>
+        <v>0.0563</v>
       </c>
       <c r="E89" t="n">
         <v>6.82</v>
@@ -2590,7 +2590,7 @@
         <v>71</v>
       </c>
       <c r="D90" t="n">
-        <v>5.63</v>
+        <v>0.0563</v>
       </c>
       <c r="E90" t="n">
         <v>9.49</v>
@@ -2614,7 +2614,7 @@
         <v>49</v>
       </c>
       <c r="D91" t="n">
-        <v>8.16</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="E91" t="n">
         <v>6.69</v>
@@ -2638,7 +2638,7 @@
         <v>460</v>
       </c>
       <c r="D92" t="n">
-        <v>0.65</v>
+        <v>0.0065</v>
       </c>
       <c r="E92" t="n">
         <v>20.91</v>
@@ -2662,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="D93" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="E93" t="n">
         <v>12.62</v>
@@ -2686,7 +2686,7 @@
         <v>198</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E94" t="n">
         <v>23.6</v>
@@ -2710,7 +2710,7 @@
         <v>125</v>
       </c>
       <c r="D95" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="E95" t="n">
         <v>19.06</v>
@@ -2734,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="D96" t="n">
-        <v>3.49</v>
+        <v>0.0349</v>
       </c>
       <c r="E96" t="n">
         <v>5.99</v>
@@ -2758,7 +2758,7 @@
         <v>80</v>
       </c>
       <c r="D97" t="n">
-        <v>3.75</v>
+        <v>0.0375</v>
       </c>
       <c r="E97" t="n">
         <v>9.039999999999999</v>
@@ -2782,7 +2782,7 @@
         <v>73</v>
       </c>
       <c r="D98" t="n">
-        <v>4.11</v>
+        <v>0.0411</v>
       </c>
       <c r="E98" t="n">
         <v>9.789999999999999</v>
@@ -2806,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="D99" t="n">
-        <v>8.57</v>
+        <v>0.0857</v>
       </c>
       <c r="E99" t="n">
         <v>11.63</v>
@@ -2830,7 +2830,7 @@
         <v>28</v>
       </c>
       <c r="D100" t="n">
-        <v>10.71</v>
+        <v>0.1071</v>
       </c>
       <c r="E100" t="n">
         <v>6.14</v>
@@ -2854,7 +2854,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>17.65</v>
+        <v>0.1765</v>
       </c>
       <c r="E101" t="n">
         <v>5.41</v>
@@ -2878,7 +2878,7 @@
         <v>185</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="E102" t="n">
         <v>10.94</v>
@@ -2902,7 +2902,7 @@
         <v>80</v>
       </c>
       <c r="D103" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="E103" t="n">
         <v>8.65</v>
@@ -2926,7 +2926,7 @@
         <v>47</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26</v>
+        <v>0.0426</v>
       </c>
       <c r="E104" t="n">
         <v>9.279999999999999</v>
@@ -2950,7 +2950,7 @@
         <v>24</v>
       </c>
       <c r="D105" t="n">
-        <v>8.33</v>
+        <v>0.0833</v>
       </c>
       <c r="E105" t="n">
         <v>19.71</v>
@@ -2974,7 +2974,7 @@
         <v>18</v>
       </c>
       <c r="D106" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E106" t="n">
         <v>11.72</v>
@@ -2998,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="D107" t="n">
-        <v>0.82</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="E107" t="n">
         <v>9.52</v>
@@ -3022,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="D108" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="E108" t="n">
         <v>17.28</v>
@@ -3046,7 +3046,7 @@
         <v>97</v>
       </c>
       <c r="D109" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="E109" t="n">
         <v>11.2</v>
@@ -3070,7 +3070,7 @@
         <v>66</v>
       </c>
       <c r="D110" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E110" t="n">
         <v>26.35</v>
@@ -3094,7 +3094,7 @@
         <v>53</v>
       </c>
       <c r="D111" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="E111" t="n">
         <v>10.6</v>
@@ -3118,7 +3118,7 @@
         <v>47</v>
       </c>
       <c r="D112" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="E112" t="n">
         <v>5.19</v>
@@ -3142,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="E113" t="n">
         <v>7.5</v>
@@ -3166,7 +3166,7 @@
         <v>31</v>
       </c>
       <c r="D114" t="n">
-        <v>3.23</v>
+        <v>0.0323</v>
       </c>
       <c r="E114" t="n">
         <v>10.74</v>
@@ -3190,7 +3190,7 @@
         <v>27</v>
       </c>
       <c r="D115" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E115" t="n">
         <v>5.59</v>
@@ -3214,7 +3214,7 @@
         <v>27</v>
       </c>
       <c r="D116" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E116" t="n">
         <v>10.19</v>
@@ -3238,7 +3238,7 @@
         <v>23</v>
       </c>
       <c r="D117" t="n">
-        <v>4.35</v>
+        <v>0.0435</v>
       </c>
       <c r="E117" t="n">
         <v>11.78</v>
@@ -3262,7 +3262,7 @@
         <v>21</v>
       </c>
       <c r="D118" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="E118" t="n">
         <v>8.859999999999999</v>
@@ -3286,7 +3286,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -3310,7 +3310,7 @@
         <v>19</v>
       </c>
       <c r="D120" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="E120" t="n">
         <v>6.05</v>
@@ -3334,7 +3334,7 @@
         <v>18</v>
       </c>
       <c r="D121" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E121" t="n">
         <v>19.11</v>
@@ -3358,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>7.14</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E122" t="n">
         <v>5.29</v>
@@ -3382,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>8.33</v>
+        <v>0.0833</v>
       </c>
       <c r="E123" t="n">
         <v>6.42</v>
@@ -3406,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E124" t="n">
         <v>3.89</v>
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>16.67</v>
+        <v>0.1667</v>
       </c>
       <c r="E125" t="n">
         <v>4.33</v>
@@ -3454,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>16.67</v>
+        <v>0.1667</v>
       </c>
       <c r="E126" t="n">
         <v>14.67</v>
@@ -3478,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>16.67</v>
+        <v>0.1667</v>
       </c>
       <c r="E127" t="n">
         <v>36.67</v>
@@ -3502,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E128" t="n">
         <v>9</v>
@@ -3526,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="D129" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E129" t="n">
         <v>14.8</v>
@@ -3550,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="E130" t="n">
         <v>2.75</v>
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="D131" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -5110,7 +5110,7 @@
         <v>117363</v>
       </c>
       <c r="D195" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E195" t="n">
         <v>15.76</v>
@@ -5134,7 +5134,7 @@
         <v>577</v>
       </c>
       <c r="D196" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="E196" t="n">
         <v>8.6</v>
@@ -5158,7 +5158,7 @@
         <v>286</v>
       </c>
       <c r="D197" t="n">
-        <v>6.29</v>
+        <v>0.0629</v>
       </c>
       <c r="E197" t="n">
         <v>5.51</v>
@@ -5182,7 +5182,7 @@
         <v>495</v>
       </c>
       <c r="D198" t="n">
-        <v>3.43</v>
+        <v>0.0343</v>
       </c>
       <c r="E198" t="n">
         <v>6.89</v>
@@ -5206,7 +5206,7 @@
         <v>97</v>
       </c>
       <c r="D199" t="n">
-        <v>16.49</v>
+        <v>0.1649</v>
       </c>
       <c r="E199" t="n">
         <v>5.31</v>
@@ -5230,7 +5230,7 @@
         <v>279</v>
       </c>
       <c r="D200" t="n">
-        <v>5.38</v>
+        <v>0.0538</v>
       </c>
       <c r="E200" t="n">
         <v>9.15</v>
@@ -5254,7 +5254,7 @@
         <v>447</v>
       </c>
       <c r="D201" t="n">
-        <v>3.13</v>
+        <v>0.0313</v>
       </c>
       <c r="E201" t="n">
         <v>9.81</v>
@@ -5278,7 +5278,7 @@
         <v>1200</v>
       </c>
       <c r="D202" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="E202" t="n">
         <v>30.21</v>
@@ -5302,7 +5302,7 @@
         <v>152</v>
       </c>
       <c r="D203" t="n">
-        <v>7.89</v>
+        <v>0.0789</v>
       </c>
       <c r="E203" t="n">
         <v>8.26</v>
@@ -5326,7 +5326,7 @@
         <v>488</v>
       </c>
       <c r="D204" t="n">
-        <v>2.25</v>
+        <v>0.0225</v>
       </c>
       <c r="E204" t="n">
         <v>12.63</v>
@@ -5350,7 +5350,7 @@
         <v>69</v>
       </c>
       <c r="D205" t="n">
-        <v>15.94</v>
+        <v>0.1594</v>
       </c>
       <c r="E205" t="n">
         <v>6.9</v>
@@ -5374,7 +5374,7 @@
         <v>96</v>
       </c>
       <c r="D206" t="n">
-        <v>10.42</v>
+        <v>0.1042</v>
       </c>
       <c r="E206" t="n">
         <v>4.1</v>
@@ -5398,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="D207" t="n">
-        <v>13.16</v>
+        <v>0.1316</v>
       </c>
       <c r="E207" t="n">
         <v>4.87</v>
@@ -5422,7 +5422,7 @@
         <v>194</v>
       </c>
       <c r="D208" t="n">
-        <v>4.64</v>
+        <v>0.0464</v>
       </c>
       <c r="E208" t="n">
         <v>6.75</v>
@@ -5446,7 +5446,7 @@
         <v>143</v>
       </c>
       <c r="D209" t="n">
-        <v>5.59</v>
+        <v>0.0559</v>
       </c>
       <c r="E209" t="n">
         <v>7.64</v>
@@ -5470,7 +5470,7 @@
         <v>135</v>
       </c>
       <c r="D210" t="n">
-        <v>5.93</v>
+        <v>0.0593</v>
       </c>
       <c r="E210" t="n">
         <v>10.93</v>
@@ -5494,7 +5494,7 @@
         <v>70</v>
       </c>
       <c r="D211" t="n">
-        <v>11.43</v>
+        <v>0.1143</v>
       </c>
       <c r="E211" t="n">
         <v>5.14</v>
@@ -5518,7 +5518,7 @@
         <v>150</v>
       </c>
       <c r="D212" t="n">
-        <v>4.67</v>
+        <v>0.0467</v>
       </c>
       <c r="E212" t="n">
         <v>10.42</v>
@@ -5542,7 +5542,7 @@
         <v>114</v>
       </c>
       <c r="D213" t="n">
-        <v>6.14</v>
+        <v>0.0614</v>
       </c>
       <c r="E213" t="n">
         <v>4.93</v>
@@ -5566,7 +5566,7 @@
         <v>58</v>
       </c>
       <c r="D214" t="n">
-        <v>12.07</v>
+        <v>0.1207</v>
       </c>
       <c r="E214" t="n">
         <v>4.4</v>
@@ -5590,7 +5590,7 @@
         <v>649</v>
       </c>
       <c r="D215" t="n">
-        <v>0.92</v>
+        <v>0.0092</v>
       </c>
       <c r="E215" t="n">
         <v>16.63</v>
@@ -5614,7 +5614,7 @@
         <v>416</v>
       </c>
       <c r="D216" t="n">
-        <v>1.44</v>
+        <v>0.0144</v>
       </c>
       <c r="E216" t="n">
         <v>20.61</v>
@@ -5638,7 +5638,7 @@
         <v>213</v>
       </c>
       <c r="D217" t="n">
-        <v>2.35</v>
+        <v>0.0235</v>
       </c>
       <c r="E217" t="n">
         <v>5.31</v>
@@ -5662,7 +5662,7 @@
         <v>148</v>
       </c>
       <c r="D218" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="E218" t="n">
         <v>6.27</v>
@@ -5686,7 +5686,7 @@
         <v>60</v>
       </c>
       <c r="D219" t="n">
-        <v>8.33</v>
+        <v>0.0833</v>
       </c>
       <c r="E219" t="n">
         <v>5.22</v>
@@ -5710,7 +5710,7 @@
         <v>183</v>
       </c>
       <c r="D220" t="n">
-        <v>2.19</v>
+        <v>0.0219</v>
       </c>
       <c r="E220" t="n">
         <v>8.119999999999999</v>
@@ -5734,7 +5734,7 @@
         <v>133</v>
       </c>
       <c r="D221" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="E221" t="n">
         <v>13.21</v>
@@ -5758,7 +5758,7 @@
         <v>119</v>
       </c>
       <c r="D222" t="n">
-        <v>3.36</v>
+        <v>0.0336</v>
       </c>
       <c r="E222" t="n">
         <v>13.14</v>
@@ -5782,7 +5782,7 @@
         <v>94</v>
       </c>
       <c r="D223" t="n">
-        <v>4.26</v>
+        <v>0.0426</v>
       </c>
       <c r="E223" t="n">
         <v>7.68</v>
@@ -5806,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E224" t="n">
         <v>4.75</v>
@@ -5830,7 +5830,7 @@
         <v>48</v>
       </c>
       <c r="D225" t="n">
-        <v>8.33</v>
+        <v>0.0833</v>
       </c>
       <c r="E225" t="n">
         <v>6.48</v>
@@ -5854,7 +5854,7 @@
         <v>193</v>
       </c>
       <c r="D226" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="E226" t="n">
         <v>15.8</v>
@@ -5878,7 +5878,7 @@
         <v>126</v>
       </c>
       <c r="D227" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="E227" t="n">
         <v>5.35</v>
@@ -5902,7 +5902,7 @@
         <v>93</v>
       </c>
       <c r="D228" t="n">
-        <v>3.23</v>
+        <v>0.0323</v>
       </c>
       <c r="E228" t="n">
         <v>8.32</v>
@@ -5926,7 +5926,7 @@
         <v>17</v>
       </c>
       <c r="D229" t="n">
-        <v>17.65</v>
+        <v>0.1765</v>
       </c>
       <c r="E229" t="n">
         <v>4.41</v>
@@ -5950,7 +5950,7 @@
         <v>91</v>
       </c>
       <c r="D230" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="E230" t="n">
         <v>7.24</v>
@@ -5974,7 +5974,7 @@
         <v>75</v>
       </c>
       <c r="D231" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="E231" t="n">
         <v>11.24</v>
@@ -5998,7 +5998,7 @@
         <v>54</v>
       </c>
       <c r="D232" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E232" t="n">
         <v>8.41</v>
@@ -6022,7 +6022,7 @@
         <v>50</v>
       </c>
       <c r="D233" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="E233" t="n">
         <v>9.6</v>
@@ -6046,7 +6046,7 @@
         <v>44</v>
       </c>
       <c r="D234" t="n">
-        <v>4.55</v>
+        <v>0.0455</v>
       </c>
       <c r="E234" t="n">
         <v>3.89</v>
@@ -6070,7 +6070,7 @@
         <v>42</v>
       </c>
       <c r="D235" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="E235" t="n">
         <v>9.119999999999999</v>
@@ -6094,7 +6094,7 @@
         <v>41</v>
       </c>
       <c r="D236" t="n">
-        <v>4.88</v>
+        <v>0.0488</v>
       </c>
       <c r="E236" t="n">
         <v>8.460000000000001</v>
@@ -6118,7 +6118,7 @@
         <v>39</v>
       </c>
       <c r="D237" t="n">
-        <v>5.13</v>
+        <v>0.0513</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -6142,7 +6142,7 @@
         <v>35</v>
       </c>
       <c r="D238" t="n">
-        <v>5.71</v>
+        <v>0.0571</v>
       </c>
       <c r="E238" t="n">
         <v>10.23</v>
@@ -6166,7 +6166,7 @@
         <v>32</v>
       </c>
       <c r="D239" t="n">
-        <v>6.25</v>
+        <v>0.0625</v>
       </c>
       <c r="E239" t="n">
         <v>3.91</v>
@@ -6190,7 +6190,7 @@
         <v>28</v>
       </c>
       <c r="D240" t="n">
-        <v>7.14</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="E240" t="n">
         <v>5.89</v>
@@ -6214,7 +6214,7 @@
         <v>18</v>
       </c>
       <c r="D241" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E241" t="n">
         <v>9.83</v>
@@ -6238,7 +6238,7 @@
         <v>1859</v>
       </c>
       <c r="D242" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="E242" t="n">
         <v>23.84</v>
@@ -6262,7 +6262,7 @@
         <v>376</v>
       </c>
       <c r="D243" t="n">
-        <v>0.27</v>
+        <v>0.0027</v>
       </c>
       <c r="E243" t="n">
         <v>13.09</v>
@@ -6286,7 +6286,7 @@
         <v>161</v>
       </c>
       <c r="D244" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="E244" t="n">
         <v>9.94</v>
@@ -6310,7 +6310,7 @@
         <v>146</v>
       </c>
       <c r="D245" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="E245" t="n">
         <v>15.97</v>
@@ -6334,7 +6334,7 @@
         <v>141</v>
       </c>
       <c r="D246" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="E246" t="n">
         <v>20.45</v>
@@ -6358,7 +6358,7 @@
         <v>66</v>
       </c>
       <c r="D247" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E247" t="n">
         <v>18.15</v>
@@ -6382,7 +6382,7 @@
         <v>64</v>
       </c>
       <c r="D248" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E248" t="n">
         <v>26.38</v>
@@ -6406,7 +6406,7 @@
         <v>62</v>
       </c>
       <c r="D249" t="n">
-        <v>1.61</v>
+        <v>0.0161</v>
       </c>
       <c r="E249" t="n">
         <v>11.48</v>
@@ -6430,7 +6430,7 @@
         <v>45</v>
       </c>
       <c r="D250" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="E250" t="n">
         <v>7.58</v>
@@ -6454,7 +6454,7 @@
         <v>27</v>
       </c>
       <c r="D251" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E251" t="n">
         <v>3.81</v>
@@ -6478,7 +6478,7 @@
         <v>26</v>
       </c>
       <c r="D252" t="n">
-        <v>3.85</v>
+        <v>0.0385</v>
       </c>
       <c r="E252" t="n">
         <v>6.15</v>
@@ -6502,7 +6502,7 @@
         <v>21</v>
       </c>
       <c r="D253" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="E253" t="n">
         <v>17.76</v>
@@ -6526,7 +6526,7 @@
         <v>18</v>
       </c>
       <c r="D254" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -6550,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="D255" t="n">
-        <v>8.33</v>
+        <v>0.0833</v>
       </c>
       <c r="E255" t="n">
         <v>12.75</v>
@@ -6574,7 +6574,7 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E256" t="n">
         <v>4.09</v>
@@ -6598,7 +6598,7 @@
         <v>10</v>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E257" t="n">
         <v>4.3</v>
@@ -6622,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="D258" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E258" t="n">
         <v>18.6</v>
@@ -6646,7 +6646,7 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>16.67</v>
+        <v>0.1667</v>
       </c>
       <c r="E259" t="n">
         <v>5.67</v>
@@ -6670,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="D260" t="n">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="D261" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E261" t="n">
         <v>2.67</v>
@@ -6718,7 +6718,7 @@
         <v>3</v>
       </c>
       <c r="D262" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E262" t="n">
         <v>3</v>
@@ -9238,7 +9238,7 @@
         <v>17813</v>
       </c>
       <c r="D367" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="E367" t="n">
         <v>19.96</v>
@@ -9262,7 +9262,7 @@
         <v>188</v>
       </c>
       <c r="D368" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="E368" t="n">
         <v>9.85</v>
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="D369" t="n">
-        <v>23.81</v>
+        <v>0.2381</v>
       </c>
       <c r="E369" t="n">
         <v>4.38</v>
@@ -9310,7 +9310,7 @@
         <v>167</v>
       </c>
       <c r="D370" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="E370" t="n">
         <v>16.83</v>
@@ -9334,7 +9334,7 @@
         <v>337</v>
       </c>
       <c r="D371" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="E371" t="n">
         <v>10.87</v>
@@ -9358,7 +9358,7 @@
         <v>96</v>
       </c>
       <c r="D372" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="E372" t="n">
         <v>12.35</v>
@@ -9382,7 +9382,7 @@
         <v>55</v>
       </c>
       <c r="D373" t="n">
-        <v>5.45</v>
+        <v>0.0545</v>
       </c>
       <c r="E373" t="n">
         <v>9.16</v>
@@ -9406,7 +9406,7 @@
         <v>1200</v>
       </c>
       <c r="D374" t="n">
-        <v>0.17</v>
+        <v>0.0017</v>
       </c>
       <c r="E374" t="n">
         <v>26.4</v>
@@ -9430,7 +9430,7 @@
         <v>549</v>
       </c>
       <c r="D375" t="n">
-        <v>0.36</v>
+        <v>0.0036</v>
       </c>
       <c r="E375" t="n">
         <v>27.49</v>
@@ -9454,7 +9454,7 @@
         <v>368</v>
       </c>
       <c r="D376" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="E376" t="n">
         <v>15.12</v>
@@ -9478,7 +9478,7 @@
         <v>198</v>
       </c>
       <c r="D377" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="E377" t="n">
         <v>10.18</v>
@@ -9502,7 +9502,7 @@
         <v>90</v>
       </c>
       <c r="D378" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="E378" t="n">
         <v>14.59</v>
@@ -9526,7 +9526,7 @@
         <v>73</v>
       </c>
       <c r="D379" t="n">
-        <v>2.74</v>
+        <v>0.0274</v>
       </c>
       <c r="E379" t="n">
         <v>12.97</v>
@@ -9550,7 +9550,7 @@
         <v>48</v>
       </c>
       <c r="D380" t="n">
-        <v>4.17</v>
+        <v>0.0417</v>
       </c>
       <c r="E380" t="n">
         <v>6.29</v>
@@ -9574,7 +9574,7 @@
         <v>36</v>
       </c>
       <c r="D381" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E381" t="n">
         <v>11.39</v>
@@ -9598,7 +9598,7 @@
         <v>26</v>
       </c>
       <c r="D382" t="n">
-        <v>7.69</v>
+        <v>0.0769</v>
       </c>
       <c r="E382" t="n">
         <v>7.62</v>
@@ -9622,7 +9622,7 @@
         <v>20</v>
       </c>
       <c r="D383" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E383" t="n">
         <v>12.9</v>
@@ -9646,7 +9646,7 @@
         <v>101</v>
       </c>
       <c r="D384" t="n">
-        <v>0.99</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="E384" t="n">
         <v>10.59</v>
@@ -9670,7 +9670,7 @@
         <v>70</v>
       </c>
       <c r="D385" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="E385" t="n">
         <v>7.81</v>
@@ -9694,7 +9694,7 @@
         <v>58</v>
       </c>
       <c r="D386" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E386" t="n">
         <v>7.72</v>
@@ -9718,7 +9718,7 @@
         <v>46</v>
       </c>
       <c r="D387" t="n">
-        <v>2.17</v>
+        <v>0.0217</v>
       </c>
       <c r="E387" t="n">
         <v>10.59</v>
@@ -9742,7 +9742,7 @@
         <v>28</v>
       </c>
       <c r="D388" t="n">
-        <v>3.57</v>
+        <v>0.0357</v>
       </c>
       <c r="E388" t="n">
         <v>6.54</v>
@@ -9766,7 +9766,7 @@
         <v>27</v>
       </c>
       <c r="D389" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E389" t="n">
         <v>31.33</v>
@@ -9790,7 +9790,7 @@
         <v>24</v>
       </c>
       <c r="D390" t="n">
-        <v>4.17</v>
+        <v>0.0417</v>
       </c>
       <c r="E390" t="n">
         <v>4.33</v>
@@ -9814,7 +9814,7 @@
         <v>20</v>
       </c>
       <c r="D391" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E391" t="n">
         <v>7.1</v>
@@ -9838,7 +9838,7 @@
         <v>19</v>
       </c>
       <c r="D392" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="E392" t="n">
         <v>12.58</v>
@@ -9862,7 +9862,7 @@
         <v>18</v>
       </c>
       <c r="D393" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E393" t="n">
         <v>5.17</v>
@@ -9886,7 +9886,7 @@
         <v>17</v>
       </c>
       <c r="D394" t="n">
-        <v>5.88</v>
+        <v>0.0588</v>
       </c>
       <c r="E394" t="n">
         <v>16.29</v>
@@ -9910,7 +9910,7 @@
         <v>15</v>
       </c>
       <c r="D395" t="n">
-        <v>6.67</v>
+        <v>0.0667</v>
       </c>
       <c r="E395" t="n">
         <v>3.8</v>
@@ -9934,7 +9934,7 @@
         <v>11</v>
       </c>
       <c r="D396" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E396" t="n">
         <v>5.64</v>
@@ -9958,7 +9958,7 @@
         <v>9</v>
       </c>
       <c r="D397" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E397" t="n">
         <v>5.67</v>
@@ -9982,7 +9982,7 @@
         <v>8</v>
       </c>
       <c r="D398" t="n">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="E398" t="n">
         <v>4.25</v>
@@ -10006,7 +10006,7 @@
         <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>16.67</v>
+        <v>0.1667</v>
       </c>
       <c r="E399" t="n">
         <v>3.67</v>
@@ -10030,7 +10030,7 @@
         <v>5</v>
       </c>
       <c r="D400" t="n">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="E400" t="n">
         <v>32.8</v>
@@ -10054,7 +10054,7 @@
         <v>2</v>
       </c>
       <c r="D401" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E401" t="n">
         <v>2.5</v>
@@ -12742,7 +12742,7 @@
         <v>51217</v>
       </c>
       <c r="D513" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E513" t="n">
         <v>16.24</v>
@@ -12766,7 +12766,7 @@
         <v>1148</v>
       </c>
       <c r="D514" t="n">
-        <v>2.79</v>
+        <v>0.0279</v>
       </c>
       <c r="E514" t="n">
         <v>15.16</v>
@@ -12790,7 +12790,7 @@
         <v>1387</v>
       </c>
       <c r="D515" t="n">
-        <v>1.23</v>
+        <v>0.0123</v>
       </c>
       <c r="E515" t="n">
         <v>34.28</v>
@@ -12814,7 +12814,7 @@
         <v>161</v>
       </c>
       <c r="D516" t="n">
-        <v>10.56</v>
+        <v>0.1056</v>
       </c>
       <c r="E516" t="n">
         <v>14.3</v>
@@ -12838,7 +12838,7 @@
         <v>271</v>
       </c>
       <c r="D517" t="n">
-        <v>3.69</v>
+        <v>0.0369</v>
       </c>
       <c r="E517" t="n">
         <v>22.66</v>
@@ -12862,7 +12862,7 @@
         <v>724</v>
       </c>
       <c r="D518" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E518" t="n">
         <v>12.93</v>
@@ -12886,7 +12886,7 @@
         <v>131</v>
       </c>
       <c r="D519" t="n">
-        <v>6.87</v>
+        <v>0.0687</v>
       </c>
       <c r="E519" t="n">
         <v>15.05</v>
@@ -12910,7 +12910,7 @@
         <v>122</v>
       </c>
       <c r="D520" t="n">
-        <v>7.38</v>
+        <v>0.0738</v>
       </c>
       <c r="E520" t="n">
         <v>15.8</v>
@@ -12934,7 +12934,7 @@
         <v>212</v>
       </c>
       <c r="D521" t="n">
-        <v>3.77</v>
+        <v>0.0377</v>
       </c>
       <c r="E521" t="n">
         <v>12.79</v>
@@ -12958,7 +12958,7 @@
         <v>122</v>
       </c>
       <c r="D522" t="n">
-        <v>6.56</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="E522" t="n">
         <v>6.47</v>
@@ -12982,7 +12982,7 @@
         <v>49</v>
       </c>
       <c r="D523" t="n">
-        <v>16.33</v>
+        <v>0.1633</v>
       </c>
       <c r="E523" t="n">
         <v>6.1</v>
@@ -13006,7 +13006,7 @@
         <v>168</v>
       </c>
       <c r="D524" t="n">
-        <v>4.17</v>
+        <v>0.0417</v>
       </c>
       <c r="E524" t="n">
         <v>16.11</v>
@@ -13030,7 +13030,7 @@
         <v>38</v>
       </c>
       <c r="D525" t="n">
-        <v>18.42</v>
+        <v>0.1842</v>
       </c>
       <c r="E525" t="n">
         <v>11.34</v>
@@ -13054,7 +13054,7 @@
         <v>58</v>
       </c>
       <c r="D526" t="n">
-        <v>10.34</v>
+        <v>0.1034</v>
       </c>
       <c r="E526" t="n">
         <v>9.84</v>
@@ -13078,7 +13078,7 @@
         <v>336</v>
       </c>
       <c r="D527" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="E527" t="n">
         <v>17.01</v>
@@ -13102,7 +13102,7 @@
         <v>43</v>
       </c>
       <c r="D528" t="n">
-        <v>11.63</v>
+        <v>0.1163</v>
       </c>
       <c r="E528" t="n">
         <v>5.95</v>
@@ -13126,7 +13126,7 @@
         <v>19</v>
       </c>
       <c r="D529" t="n">
-        <v>26.32</v>
+        <v>0.2632</v>
       </c>
       <c r="E529" t="n">
         <v>12.05</v>
@@ -13150,7 +13150,7 @@
         <v>102</v>
       </c>
       <c r="D530" t="n">
-        <v>3.92</v>
+        <v>0.0392</v>
       </c>
       <c r="E530" t="n">
         <v>5.96</v>
@@ -13174,7 +13174,7 @@
         <v>78</v>
       </c>
       <c r="D531" t="n">
-        <v>5.13</v>
+        <v>0.0513</v>
       </c>
       <c r="E531" t="n">
         <v>21.21</v>
@@ -13198,7 +13198,7 @@
         <v>45</v>
       </c>
       <c r="D532" t="n">
-        <v>8.890000000000001</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="E532" t="n">
         <v>5.53</v>
@@ -13222,7 +13222,7 @@
         <v>9</v>
       </c>
       <c r="D533" t="n">
-        <v>44.44</v>
+        <v>0.4444</v>
       </c>
       <c r="E533" t="n">
         <v>3.22</v>
@@ -13246,7 +13246,7 @@
         <v>746</v>
       </c>
       <c r="D534" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="E534" t="n">
         <v>30.84</v>
@@ -13270,7 +13270,7 @@
         <v>54</v>
       </c>
       <c r="D535" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E535" t="n">
         <v>10.83</v>
@@ -13294,7 +13294,7 @@
         <v>54</v>
       </c>
       <c r="D536" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="E536" t="n">
         <v>11.76</v>
@@ -13318,7 +13318,7 @@
         <v>53</v>
       </c>
       <c r="D537" t="n">
-        <v>5.66</v>
+        <v>0.0566</v>
       </c>
       <c r="E537" t="n">
         <v>11.17</v>
@@ -13342,7 +13342,7 @@
         <v>35</v>
       </c>
       <c r="D538" t="n">
-        <v>8.57</v>
+        <v>0.0857</v>
       </c>
       <c r="E538" t="n">
         <v>14.89</v>
@@ -13366,7 +13366,7 @@
         <v>34</v>
       </c>
       <c r="D539" t="n">
-        <v>8.82</v>
+        <v>0.0882</v>
       </c>
       <c r="E539" t="n">
         <v>24.26</v>
@@ -13390,7 +13390,7 @@
         <v>33</v>
       </c>
       <c r="D540" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E540" t="n">
         <v>5.55</v>
@@ -13414,7 +13414,7 @@
         <v>29</v>
       </c>
       <c r="D541" t="n">
-        <v>10.34</v>
+        <v>0.1034</v>
       </c>
       <c r="E541" t="n">
         <v>13.93</v>
@@ -13438,7 +13438,7 @@
         <v>28</v>
       </c>
       <c r="D542" t="n">
-        <v>10.71</v>
+        <v>0.1071</v>
       </c>
       <c r="E542" t="n">
         <v>26.43</v>
@@ -13462,7 +13462,7 @@
         <v>19</v>
       </c>
       <c r="D543" t="n">
-        <v>15.79</v>
+        <v>0.1579</v>
       </c>
       <c r="E543" t="n">
         <v>31.26</v>
@@ -13486,7 +13486,7 @@
         <v>17</v>
       </c>
       <c r="D544" t="n">
-        <v>17.65</v>
+        <v>0.1765</v>
       </c>
       <c r="E544" t="n">
         <v>12.76</v>
@@ -13510,7 +13510,7 @@
         <v>14</v>
       </c>
       <c r="D545" t="n">
-        <v>21.43</v>
+        <v>0.2143</v>
       </c>
       <c r="E545" t="n">
         <v>3.71</v>
@@ -13534,7 +13534,7 @@
         <v>13</v>
       </c>
       <c r="D546" t="n">
-        <v>23.08</v>
+        <v>0.2308</v>
       </c>
       <c r="E546" t="n">
         <v>9.619999999999999</v>
@@ -13558,7 +13558,7 @@
         <v>10</v>
       </c>
       <c r="D547" t="n">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="E547" t="n">
         <v>8.199999999999999</v>
@@ -13582,7 +13582,7 @@
         <v>118</v>
       </c>
       <c r="D548" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E548" t="n">
         <v>30.18</v>
@@ -13606,7 +13606,7 @@
         <v>107</v>
       </c>
       <c r="D549" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E549" t="n">
         <v>12.16</v>
@@ -13630,7 +13630,7 @@
         <v>67</v>
       </c>
       <c r="D550" t="n">
-        <v>2.99</v>
+        <v>0.0299</v>
       </c>
       <c r="E550" t="n">
         <v>12.36</v>
@@ -13654,7 +13654,7 @@
         <v>38</v>
       </c>
       <c r="D551" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="E551" t="n">
         <v>24.37</v>
@@ -13678,7 +13678,7 @@
         <v>23</v>
       </c>
       <c r="D552" t="n">
-        <v>8.699999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E552" t="n">
         <v>5.04</v>
@@ -13702,7 +13702,7 @@
         <v>17</v>
       </c>
       <c r="D553" t="n">
-        <v>11.76</v>
+        <v>0.1176</v>
       </c>
       <c r="E553" t="n">
         <v>9.94</v>
@@ -13726,7 +13726,7 @@
         <v>6</v>
       </c>
       <c r="D554" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E554" t="n">
         <v>2.67</v>
@@ -13750,7 +13750,7 @@
         <v>6</v>
       </c>
       <c r="D555" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E555" t="n">
         <v>13.17</v>
@@ -13774,7 +13774,7 @@
         <v>3</v>
       </c>
       <c r="D556" t="n">
-        <v>66.67</v>
+        <v>0.6667</v>
       </c>
       <c r="E556" t="n">
         <v>2.67</v>
@@ -13798,7 +13798,7 @@
         <v>107</v>
       </c>
       <c r="D557" t="n">
-        <v>0.93</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="E557" t="n">
         <v>27.46</v>
@@ -13822,7 +13822,7 @@
         <v>46</v>
       </c>
       <c r="D558" t="n">
-        <v>2.17</v>
+        <v>0.0217</v>
       </c>
       <c r="E558" t="n">
         <v>18.28</v>
@@ -13846,7 +13846,7 @@
         <v>25</v>
       </c>
       <c r="D559" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="E559" t="n">
         <v>6.2</v>
@@ -13870,7 +13870,7 @@
         <v>25</v>
       </c>
       <c r="D560" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="E560" t="n">
         <v>10.72</v>
@@ -13894,7 +13894,7 @@
         <v>22</v>
       </c>
       <c r="D561" t="n">
-        <v>4.55</v>
+        <v>0.0455</v>
       </c>
       <c r="E561" t="n">
         <v>16</v>
@@ -13918,7 +13918,7 @@
         <v>20</v>
       </c>
       <c r="D562" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E562" t="n">
         <v>28.75</v>
@@ -13942,7 +13942,7 @@
         <v>11</v>
       </c>
       <c r="D563" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E563" t="n">
         <v>3.27</v>
@@ -13966,7 +13966,7 @@
         <v>11</v>
       </c>
       <c r="D564" t="n">
-        <v>9.09</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="E564" t="n">
         <v>4.82</v>
@@ -13990,7 +13990,7 @@
         <v>9</v>
       </c>
       <c r="D565" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E565" t="n">
         <v>2.22</v>
@@ -14014,7 +14014,7 @@
         <v>9</v>
       </c>
       <c r="D566" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E566" t="n">
         <v>5.11</v>
@@ -14038,7 +14038,7 @@
         <v>8</v>
       </c>
       <c r="D567" t="n">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="E567" t="n">
         <v>3.12</v>
@@ -14062,7 +14062,7 @@
         <v>7</v>
       </c>
       <c r="D568" t="n">
-        <v>14.29</v>
+        <v>0.1429</v>
       </c>
       <c r="E568" t="n">
         <v>7.71</v>
@@ -14086,7 +14086,7 @@
         <v>3</v>
       </c>
       <c r="D569" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E569" t="n">
         <v>1.33</v>
@@ -14110,7 +14110,7 @@
         <v>3</v>
       </c>
       <c r="D570" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E570" t="n">
         <v>1.67</v>
@@ -14134,7 +14134,7 @@
         <v>3</v>
       </c>
       <c r="D571" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E571" t="n">
         <v>3</v>
@@ -14158,7 +14158,7 @@
         <v>3</v>
       </c>
       <c r="D572" t="n">
-        <v>33.33</v>
+        <v>0.3333</v>
       </c>
       <c r="E572" t="n">
         <v>59</v>
@@ -14182,7 +14182,7 @@
         <v>2</v>
       </c>
       <c r="D573" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E573" t="n">
         <v>1.5</v>
@@ -14206,7 +14206,7 @@
         <v>2</v>
       </c>
       <c r="D574" t="n">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E574" t="n">
         <v>2.5</v>
@@ -14230,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="D575" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E575" t="n">
         <v>1</v>
@@ -15742,7 +15742,7 @@
         <v>26220503</v>
       </c>
       <c r="D638" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="E638" t="n">
         <v>14.86</v>
@@ -15766,7 +15766,7 @@
         <v>846092</v>
       </c>
       <c r="D639" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="E639" t="n">
         <v>28.98</v>
@@ -15790,7 +15790,7 @@
         <v>885755</v>
       </c>
       <c r="D640" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="E640" t="n">
         <v>20.07</v>
@@ -15814,7 +15814,7 @@
         <v>467250</v>
       </c>
       <c r="D641" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="E641" t="n">
         <v>12.55</v>
@@ -15838,7 +15838,7 @@
         <v>785948</v>
       </c>
       <c r="D642" t="n">
-        <v>0.48</v>
+        <v>0.0048</v>
       </c>
       <c r="E642" t="n">
         <v>38.97</v>
@@ -15862,7 +15862,7 @@
         <v>223580</v>
       </c>
       <c r="D643" t="n">
-        <v>1.65</v>
+        <v>0.0165</v>
       </c>
       <c r="E643" t="n">
         <v>20.13</v>
@@ -15886,7 +15886,7 @@
         <v>259399</v>
       </c>
       <c r="D644" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="E644" t="n">
         <v>31.81</v>
@@ -15910,7 +15910,7 @@
         <v>246866</v>
       </c>
       <c r="D645" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="E645" t="n">
         <v>19.25</v>
@@ -15934,7 +15934,7 @@
         <v>120135</v>
       </c>
       <c r="D646" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="E646" t="n">
         <v>16.97</v>
@@ -15958,7 +15958,7 @@
         <v>85046</v>
       </c>
       <c r="D647" t="n">
-        <v>2.71</v>
+        <v>0.0271</v>
       </c>
       <c r="E647" t="n">
         <v>12.64</v>
@@ -15982,7 +15982,7 @@
         <v>25088</v>
       </c>
       <c r="D648" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="E648" t="n">
         <v>16.77</v>
@@ -16006,7 +16006,7 @@
         <v>289472</v>
       </c>
       <c r="D649" t="n">
-        <v>0.75</v>
+        <v>0.0075</v>
       </c>
       <c r="E649" t="n">
         <v>34.3</v>
@@ -16030,7 +16030,7 @@
         <v>229615</v>
       </c>
       <c r="D650" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E650" t="n">
         <v>32.29</v>
@@ -16054,7 +16054,7 @@
         <v>185841</v>
       </c>
       <c r="D651" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="E651" t="n">
         <v>35.82</v>
@@ -16078,7 +16078,7 @@
         <v>161521</v>
       </c>
       <c r="D652" t="n">
-        <v>1.16</v>
+        <v>0.0116</v>
       </c>
       <c r="E652" t="n">
         <v>31.76</v>
@@ -16102,7 +16102,7 @@
         <v>184630</v>
       </c>
       <c r="D653" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="E653" t="n">
         <v>29.09</v>
@@ -16126,7 +16126,7 @@
         <v>80125</v>
       </c>
       <c r="D654" t="n">
-        <v>2.17</v>
+        <v>0.0217</v>
       </c>
       <c r="E654" t="n">
         <v>18.34</v>
@@ -16150,7 +16150,7 @@
         <v>47658</v>
       </c>
       <c r="D655" t="n">
-        <v>3.62</v>
+        <v>0.0362</v>
       </c>
       <c r="E655" t="n">
         <v>22.09</v>
@@ -16174,7 +16174,7 @@
         <v>407564</v>
       </c>
       <c r="D656" t="n">
-        <v>0.42</v>
+        <v>0.0042</v>
       </c>
       <c r="E656" t="n">
         <v>40.08</v>
@@ -16198,7 +16198,7 @@
         <v>106991</v>
       </c>
       <c r="D657" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="E657" t="n">
         <v>30.66</v>
@@ -16222,7 +16222,7 @@
         <v>115140</v>
       </c>
       <c r="D658" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E658" t="n">
         <v>25.27</v>
@@ -16246,7 +16246,7 @@
         <v>58280</v>
       </c>
       <c r="D659" t="n">
-        <v>2.57</v>
+        <v>0.0257</v>
       </c>
       <c r="E659" t="n">
         <v>19.85</v>
@@ -16270,7 +16270,7 @@
         <v>99260</v>
       </c>
       <c r="D660" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E660" t="n">
         <v>21.81</v>
@@ -16294,7 +16294,7 @@
         <v>109541</v>
       </c>
       <c r="D661" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="E661" t="n">
         <v>34</v>
@@ -16318,7 +16318,7 @@
         <v>163492</v>
       </c>
       <c r="D662" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="E662" t="n">
         <v>32.81</v>
@@ -16342,7 +16342,7 @@
         <v>716718</v>
       </c>
       <c r="D663" t="n">
-        <v>0.19</v>
+        <v>0.0019</v>
       </c>
       <c r="E663" t="n">
         <v>42.45</v>
@@ -16366,7 +16366,7 @@
         <v>57979</v>
       </c>
       <c r="D664" t="n">
-        <v>2.37</v>
+        <v>0.0237</v>
       </c>
       <c r="E664" t="n">
         <v>21.13</v>
@@ -16390,7 +16390,7 @@
         <v>94783</v>
       </c>
       <c r="D665" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="E665" t="n">
         <v>30.16</v>
@@ -16414,7 +16414,7 @@
         <v>49964</v>
       </c>
       <c r="D666" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="E666" t="n">
         <v>18.58</v>
@@ -16438,7 +16438,7 @@
         <v>30744</v>
       </c>
       <c r="D667" t="n">
-        <v>4.27</v>
+        <v>0.0427</v>
       </c>
       <c r="E667" t="n">
         <v>17.29</v>
@@ -16462,7 +16462,7 @@
         <v>126511</v>
       </c>
       <c r="D668" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="E668" t="n">
         <v>28.21</v>
@@ -16486,7 +16486,7 @@
         <v>146900</v>
       </c>
       <c r="D669" t="n">
-        <v>0.82</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="E669" t="n">
         <v>34.55</v>
@@ -16510,7 +16510,7 @@
         <v>156893</v>
       </c>
       <c r="D670" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="E670" t="n">
         <v>35.49</v>
@@ -16534,7 +16534,7 @@
         <v>66747</v>
       </c>
       <c r="D671" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="E671" t="n">
         <v>25.7</v>
@@ -16558,7 +16558,7 @@
         <v>35568</v>
       </c>
       <c r="D672" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="E672" t="n">
         <v>13.89</v>
@@ -16582,7 +16582,7 @@
         <v>46375</v>
       </c>
       <c r="D673" t="n">
-        <v>2.24</v>
+        <v>0.0224</v>
       </c>
       <c r="E673" t="n">
         <v>15.16</v>
@@ -16606,7 +16606,7 @@
         <v>265047</v>
       </c>
       <c r="D674" t="n">
-        <v>0.38</v>
+        <v>0.0038</v>
       </c>
       <c r="E674" t="n">
         <v>35.27</v>
@@ -16630,7 +16630,7 @@
         <v>41604</v>
       </c>
       <c r="D675" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="E675" t="n">
         <v>20.58</v>
@@ -16654,7 +16654,7 @@
         <v>96403</v>
       </c>
       <c r="D676" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="E676" t="n">
         <v>30.89</v>
@@ -16678,7 +16678,7 @@
         <v>1504722</v>
       </c>
       <c r="D677" t="n">
-        <v>0.06</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E677" t="n">
         <v>43.04</v>
@@ -16702,7 +16702,7 @@
         <v>66729</v>
       </c>
       <c r="D678" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="E678" t="n">
         <v>31.21</v>
@@ -16726,7 +16726,7 @@
         <v>112548</v>
       </c>
       <c r="D679" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="E679" t="n">
         <v>28.57</v>
@@ -16750,7 +16750,7 @@
         <v>20235</v>
       </c>
       <c r="D680" t="n">
-        <v>4.33</v>
+        <v>0.0433</v>
       </c>
       <c r="E680" t="n">
         <v>12.94</v>
@@ -16774,7 +16774,7 @@
         <v>42658</v>
       </c>
       <c r="D681" t="n">
-        <v>2.02</v>
+        <v>0.0202</v>
       </c>
       <c r="E681" t="n">
         <v>29.56</v>
@@ -16798,7 +16798,7 @@
         <v>45989</v>
       </c>
       <c r="D682" t="n">
-        <v>1.81</v>
+        <v>0.0181</v>
       </c>
       <c r="E682" t="n">
         <v>19.79</v>
@@ -16822,7 +16822,7 @@
         <v>50764</v>
       </c>
       <c r="D683" t="n">
-        <v>1.57</v>
+        <v>0.0157</v>
       </c>
       <c r="E683" t="n">
         <v>22.25</v>
@@ -16846,7 +16846,7 @@
         <v>24045</v>
       </c>
       <c r="D684" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="E684" t="n">
         <v>14.61</v>
@@ -16870,7 +16870,7 @@
         <v>17116</v>
       </c>
       <c r="D685" t="n">
-        <v>4.36</v>
+        <v>0.0436</v>
       </c>
       <c r="E685" t="n">
         <v>16.47</v>
@@ -16894,7 +16894,7 @@
         <v>35202</v>
       </c>
       <c r="D686" t="n">
-        <v>2.1</v>
+        <v>0.021</v>
       </c>
       <c r="E686" t="n">
         <v>14.85</v>
@@ -16918,7 +16918,7 @@
         <v>35320</v>
       </c>
       <c r="D687" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="E687" t="n">
         <v>17.2</v>
@@ -16942,7 +16942,7 @@
         <v>24708</v>
       </c>
       <c r="D688" t="n">
-        <v>2.91</v>
+        <v>0.0291</v>
       </c>
       <c r="E688" t="n">
         <v>16.43</v>
@@ -16966,7 +16966,7 @@
         <v>40442</v>
       </c>
       <c r="D689" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="E689" t="n">
         <v>22.89</v>
@@ -16990,7 +16990,7 @@
         <v>31016</v>
       </c>
       <c r="D690" t="n">
-        <v>2.25</v>
+        <v>0.0225</v>
       </c>
       <c r="E690" t="n">
         <v>26.7</v>
@@ -17014,7 +17014,7 @@
         <v>30813</v>
       </c>
       <c r="D691" t="n">
-        <v>2.24</v>
+        <v>0.0224</v>
       </c>
       <c r="E691" t="n">
         <v>19.6</v>
@@ -17038,7 +17038,7 @@
         <v>21148</v>
       </c>
       <c r="D692" t="n">
-        <v>3.2</v>
+        <v>0.032</v>
       </c>
       <c r="E692" t="n">
         <v>21.02</v>
@@ -17062,7 +17062,7 @@
         <v>79543</v>
       </c>
       <c r="D693" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="E693" t="n">
         <v>31.18</v>
@@ -17086,7 +17086,7 @@
         <v>100061</v>
       </c>
       <c r="D694" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="E694" t="n">
         <v>31.72</v>
@@ -17110,7 +17110,7 @@
         <v>24226</v>
       </c>
       <c r="D695" t="n">
-        <v>2.58</v>
+        <v>0.0258</v>
       </c>
       <c r="E695" t="n">
         <v>23.29</v>
@@ -17134,7 +17134,7 @@
         <v>127519</v>
       </c>
       <c r="D696" t="n">
-        <v>0.48</v>
+        <v>0.0048</v>
       </c>
       <c r="E696" t="n">
         <v>40.09</v>
@@ -17158,7 +17158,7 @@
         <v>12939</v>
       </c>
       <c r="D697" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="E697" t="n">
         <v>13.17</v>
@@ -17182,7 +17182,7 @@
         <v>17791</v>
       </c>
       <c r="D698" t="n">
-        <v>3.44</v>
+        <v>0.0344</v>
       </c>
       <c r="E698" t="n">
         <v>17.7</v>
@@ -17206,7 +17206,7 @@
         <v>25141</v>
       </c>
       <c r="D699" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="E699" t="n">
         <v>25.5</v>
@@ -17230,7 +17230,7 @@
         <v>46262</v>
       </c>
       <c r="D700" t="n">
-        <v>1.31</v>
+        <v>0.0131</v>
       </c>
       <c r="E700" t="n">
         <v>32.47</v>
@@ -17254,7 +17254,7 @@
         <v>34262</v>
       </c>
       <c r="D701" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="E701" t="n">
         <v>21.08</v>
@@ -17278,7 +17278,7 @@
         <v>39607</v>
       </c>
       <c r="D702" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E702" t="n">
         <v>28.42</v>
@@ -17302,7 +17302,7 @@
         <v>22874</v>
       </c>
       <c r="D703" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="E703" t="n">
         <v>22.22</v>
@@ -17326,7 +17326,7 @@
         <v>71994</v>
       </c>
       <c r="D704" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="E704" t="n">
         <v>35.73</v>
@@ -17350,7 +17350,7 @@
         <v>90250</v>
       </c>
       <c r="D705" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="E705" t="n">
         <v>31.31</v>
@@ -17374,7 +17374,7 @@
         <v>13787</v>
       </c>
       <c r="D706" t="n">
-        <v>3.78</v>
+        <v>0.0378</v>
       </c>
       <c r="E706" t="n">
         <v>13.95</v>
@@ -17398,7 +17398,7 @@
         <v>18350</v>
       </c>
       <c r="D707" t="n">
-        <v>2.79</v>
+        <v>0.0279</v>
       </c>
       <c r="E707" t="n">
         <v>20.38</v>
@@ -17422,7 +17422,7 @@
         <v>11198</v>
       </c>
       <c r="D708" t="n">
-        <v>4.44</v>
+        <v>0.0444</v>
       </c>
       <c r="E708" t="n">
         <v>21.29</v>
@@ -17446,7 +17446,7 @@
         <v>36523</v>
       </c>
       <c r="D709" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E709" t="n">
         <v>37.16</v>
@@ -17470,7 +17470,7 @@
         <v>27459</v>
       </c>
       <c r="D710" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="E710" t="n">
         <v>36.52</v>
@@ -17494,7 +17494,7 @@
         <v>22774</v>
       </c>
       <c r="D711" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="E711" t="n">
         <v>22.72</v>
@@ -17518,7 +17518,7 @@
         <v>24366</v>
       </c>
       <c r="D712" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="E712" t="n">
         <v>19.17</v>
@@ -17542,7 +17542,7 @@
         <v>15342</v>
       </c>
       <c r="D713" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="E713" t="n">
         <v>22.88</v>
@@ -17566,7 +17566,7 @@
         <v>113609</v>
       </c>
       <c r="D714" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="E714" t="n">
         <v>39.69</v>
@@ -17590,7 +17590,7 @@
         <v>18945</v>
       </c>
       <c r="D715" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="E715" t="n">
         <v>30.81</v>
@@ -17614,7 +17614,7 @@
         <v>27127</v>
       </c>
       <c r="D716" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E716" t="n">
         <v>27.56</v>
@@ -17638,7 +17638,7 @@
         <v>7622</v>
       </c>
       <c r="D717" t="n">
-        <v>4.75</v>
+        <v>0.0475</v>
       </c>
       <c r="E717" t="n">
         <v>10.91</v>
@@ -17662,7 +17662,7 @@
         <v>29249</v>
       </c>
       <c r="D718" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="E718" t="n">
         <v>35.1</v>
@@ -17686,7 +17686,7 @@
         <v>55773</v>
       </c>
       <c r="D719" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="E719" t="n">
         <v>33.86</v>
@@ -17710,7 +17710,7 @@
         <v>22725</v>
       </c>
       <c r="D720" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E720" t="n">
         <v>31.07</v>
@@ -17734,7 +17734,7 @@
         <v>55615</v>
       </c>
       <c r="D721" t="n">
-        <v>0.6</v>
+        <v>0.006</v>
       </c>
       <c r="E721" t="n">
         <v>32.63</v>
@@ -17758,7 +17758,7 @@
         <v>8026</v>
       </c>
       <c r="D722" t="n">
-        <v>4.12</v>
+        <v>0.0412</v>
       </c>
       <c r="E722" t="n">
         <v>14.13</v>
@@ -17782,7 +17782,7 @@
         <v>6334</v>
       </c>
       <c r="D723" t="n">
-        <v>5.18</v>
+        <v>0.0518</v>
       </c>
       <c r="E723" t="n">
         <v>11.77</v>
@@ -17806,7 +17806,7 @@
         <v>8951</v>
       </c>
       <c r="D724" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="E724" t="n">
         <v>11.48</v>
@@ -17830,7 +17830,7 @@
         <v>13642</v>
       </c>
       <c r="D725" t="n">
-        <v>2.35</v>
+        <v>0.0235</v>
       </c>
       <c r="E725" t="n">
         <v>24.87</v>
@@ -17854,7 +17854,7 @@
         <v>24967</v>
       </c>
       <c r="D726" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E726" t="n">
         <v>24.08</v>
@@ -17878,7 +17878,7 @@
         <v>14670</v>
       </c>
       <c r="D727" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E727" t="n">
         <v>26.76</v>
@@ -17902,7 +17902,7 @@
         <v>46782</v>
       </c>
       <c r="D728" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="E728" t="n">
         <v>35.6</v>
@@ -17926,7 +17926,7 @@
         <v>4294</v>
       </c>
       <c r="D729" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="E729" t="n">
         <v>8.51</v>
@@ -17950,7 +17950,7 @@
         <v>21560</v>
       </c>
       <c r="D730" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E730" t="n">
         <v>19.87</v>
@@ -17974,7 +17974,7 @@
         <v>52639</v>
       </c>
       <c r="D731" t="n">
-        <v>0.53</v>
+        <v>0.0053</v>
       </c>
       <c r="E731" t="n">
         <v>35.15</v>
@@ -17998,7 +17998,7 @@
         <v>24107</v>
       </c>
       <c r="D732" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="E732" t="n">
         <v>39.18</v>
@@ -18022,7 +18022,7 @@
         <v>61961</v>
       </c>
       <c r="D733" t="n">
-        <v>0.41</v>
+        <v>0.0041</v>
       </c>
       <c r="E733" t="n">
         <v>37.53</v>
@@ -18046,7 +18046,7 @@
         <v>16469</v>
       </c>
       <c r="D734" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E734" t="n">
         <v>26.23</v>
@@ -18070,7 +18070,7 @@
         <v>21469</v>
       </c>
       <c r="D735" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="E735" t="n">
         <v>36.31</v>
@@ -18094,7 +18094,7 @@
         <v>66065</v>
       </c>
       <c r="D736" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="E736" t="n">
         <v>29.73</v>
@@ -18118,7 +18118,7 @@
         <v>5815</v>
       </c>
       <c r="D737" t="n">
-        <v>3.58</v>
+        <v>0.0358</v>
       </c>
       <c r="E737" t="n">
         <v>16.75</v>
@@ -18142,7 +18142,7 @@
         <v>6516</v>
       </c>
       <c r="D738" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="E738" t="n">
         <v>14.09</v>
@@ -18166,7 +18166,7 @@
         <v>13813</v>
       </c>
       <c r="D739" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="E739" t="n">
         <v>27.01</v>
@@ -18190,7 +18190,7 @@
         <v>26290</v>
       </c>
       <c r="D740" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="E740" t="n">
         <v>37.17</v>
@@ -18214,7 +18214,7 @@
         <v>11477</v>
       </c>
       <c r="D741" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E741" t="n">
         <v>23.4</v>
@@ -18238,7 +18238,7 @@
         <v>2385</v>
       </c>
       <c r="D742" t="n">
-        <v>7.3</v>
+        <v>0.073</v>
       </c>
       <c r="E742" t="n">
         <v>7.51</v>
@@ -18262,7 +18262,7 @@
         <v>8270</v>
       </c>
       <c r="D743" t="n">
-        <v>2.02</v>
+        <v>0.0202</v>
       </c>
       <c r="E743" t="n">
         <v>25.25</v>
@@ -18286,7 +18286,7 @@
         <v>12692</v>
       </c>
       <c r="D744" t="n">
-        <v>1.24</v>
+        <v>0.0124</v>
       </c>
       <c r="E744" t="n">
         <v>21.68</v>
@@ -18310,7 +18310,7 @@
         <v>35838</v>
       </c>
       <c r="D745" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="E745" t="n">
         <v>30.72</v>
@@ -18334,7 +18334,7 @@
         <v>9555</v>
       </c>
       <c r="D746" t="n">
-        <v>1.52</v>
+        <v>0.0152</v>
       </c>
       <c r="E746" t="n">
         <v>19.12</v>
@@ -18358,7 +18358,7 @@
         <v>6462</v>
       </c>
       <c r="D747" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="E747" t="n">
         <v>16.12</v>
@@ -18382,7 +18382,7 @@
         <v>22063</v>
       </c>
       <c r="D748" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.0056</v>
       </c>
       <c r="E748" t="n">
         <v>30.18</v>
@@ -18406,7 +18406,7 @@
         <v>11681</v>
       </c>
       <c r="D749" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="E749" t="n">
         <v>29.09</v>
@@ -18430,7 +18430,7 @@
         <v>29631</v>
       </c>
       <c r="D750" t="n">
-        <v>0.37</v>
+        <v>0.0037</v>
       </c>
       <c r="E750" t="n">
         <v>35.86</v>
@@ -18454,7 +18454,7 @@
         <v>2948</v>
       </c>
       <c r="D751" t="n">
-        <v>3.63</v>
+        <v>0.0363</v>
       </c>
       <c r="E751" t="n">
         <v>10.86</v>
@@ -18478,7 +18478,7 @@
         <v>7341</v>
       </c>
       <c r="D752" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E752" t="n">
         <v>24.08</v>
@@ -18502,7 +18502,7 @@
         <v>2728</v>
       </c>
       <c r="D753" t="n">
-        <v>3.34</v>
+        <v>0.0334</v>
       </c>
       <c r="E753" t="n">
         <v>15.49</v>
@@ -18526,7 +18526,7 @@
         <v>2560</v>
       </c>
       <c r="D754" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="E754" t="n">
         <v>24.34</v>
@@ -18550,7 +18550,7 @@
         <v>5185</v>
       </c>
       <c r="D755" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E755" t="n">
         <v>30.33</v>
@@ -18574,7 +18574,7 @@
         <v>5642</v>
       </c>
       <c r="D756" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="E756" t="n">
         <v>27.27</v>
@@ -18598,7 +18598,7 @@
         <v>4350</v>
       </c>
       <c r="D757" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="E757" t="n">
         <v>23.72</v>
@@ -18622,7 +18622,7 @@
         <v>5209</v>
       </c>
       <c r="D758" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="E758" t="n">
         <v>19.9</v>
@@ -18646,7 +18646,7 @@
         <v>3788</v>
       </c>
       <c r="D759" t="n">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="E759" t="n">
         <v>22.39</v>
@@ -18670,7 +18670,7 @@
         <v>2961</v>
       </c>
       <c r="D760" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="E760" t="n">
         <v>30.05</v>
@@ -18694,7 +18694,7 @@
         <v>5802</v>
       </c>
       <c r="D761" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="E761" t="n">
         <v>34.71</v>
@@ -18718,7 +18718,7 @@
         <v>7747</v>
       </c>
       <c r="D762" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="E762" t="n">
         <v>36.68</v>
@@ -18742,7 +18742,7 @@
         <v>15947</v>
       </c>
       <c r="D763" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="E763" t="n">
         <v>40.13</v>
@@ -18766,7 +18766,7 @@
         <v>10177</v>
       </c>
       <c r="D764" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="E764" t="n">
         <v>34.49</v>
@@ -18790,7 +18790,7 @@
         <v>2594</v>
       </c>
       <c r="D765" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="E765" t="n">
         <v>16.09</v>
@@ -18814,7 +18814,7 @@
         <v>17430</v>
       </c>
       <c r="D766" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="E766" t="n">
         <v>38.72</v>
@@ -18838,7 +18838,7 @@
         <v>10641</v>
       </c>
       <c r="D767" t="n">
-        <v>0.57</v>
+        <v>0.0057</v>
       </c>
       <c r="E767" t="n">
         <v>26.27</v>
@@ -18862,7 +18862,7 @@
         <v>16997</v>
       </c>
       <c r="D768" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="E768" t="n">
         <v>29.46</v>
@@ -18886,7 +18886,7 @@
         <v>8026</v>
       </c>
       <c r="D769" t="n">
-        <v>0.7</v>
+        <v>0.007</v>
       </c>
       <c r="E769" t="n">
         <v>33.59</v>
@@ -18910,7 +18910,7 @@
         <v>3274</v>
       </c>
       <c r="D770" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="E770" t="n">
         <v>22.03</v>
@@ -18934,7 +18934,7 @@
         <v>1440</v>
       </c>
       <c r="D771" t="n">
-        <v>3.54</v>
+        <v>0.0354</v>
       </c>
       <c r="E771" t="n">
         <v>23.11</v>
@@ -18958,7 +18958,7 @@
         <v>1328</v>
       </c>
       <c r="D772" t="n">
-        <v>3.77</v>
+        <v>0.0377</v>
       </c>
       <c r="E772" t="n">
         <v>12.25</v>
@@ -18982,7 +18982,7 @@
         <v>3123</v>
       </c>
       <c r="D773" t="n">
-        <v>1.5</v>
+        <v>0.015</v>
       </c>
       <c r="E773" t="n">
         <v>14.43</v>
@@ -19006,7 +19006,7 @@
         <v>2300</v>
       </c>
       <c r="D774" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="E774" t="n">
         <v>21.98</v>
@@ -19030,7 +19030,7 @@
         <v>2246</v>
       </c>
       <c r="D775" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="E775" t="n">
         <v>17.65</v>
@@ -19054,7 +19054,7 @@
         <v>2085</v>
       </c>
       <c r="D776" t="n">
-        <v>2.01</v>
+        <v>0.0201</v>
       </c>
       <c r="E776" t="n">
         <v>19.46</v>
@@ -19078,7 +19078,7 @@
         <v>1883</v>
       </c>
       <c r="D777" t="n">
-        <v>2.23</v>
+        <v>0.0223</v>
       </c>
       <c r="E777" t="n">
         <v>29.06</v>
@@ -19102,7 +19102,7 @@
         <v>2672</v>
       </c>
       <c r="D778" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="E778" t="n">
         <v>22.31</v>
@@ -19126,7 +19126,7 @@
         <v>1979</v>
       </c>
       <c r="D779" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="E779" t="n">
         <v>28.98</v>
@@ -19150,7 +19150,7 @@
         <v>5285</v>
       </c>
       <c r="D780" t="n">
-        <v>0.64</v>
+        <v>0.0064</v>
       </c>
       <c r="E780" t="n">
         <v>32.08</v>
@@ -19174,7 +19174,7 @@
         <v>2682</v>
       </c>
       <c r="D781" t="n">
-        <v>1.27</v>
+        <v>0.0127</v>
       </c>
       <c r="E781" t="n">
         <v>21.09</v>
@@ -19198,7 +19198,7 @@
         <v>2555</v>
       </c>
       <c r="D782" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="E782" t="n">
         <v>23.21</v>
@@ -19222,7 +19222,7 @@
         <v>1746</v>
       </c>
       <c r="D783" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E783" t="n">
         <v>27.93</v>
@@ -19246,7 +19246,7 @@
         <v>1479</v>
       </c>
       <c r="D784" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="E784" t="n">
         <v>19.85</v>
@@ -19270,7 +19270,7 @@
         <v>1319</v>
       </c>
       <c r="D785" t="n">
-        <v>2.05</v>
+        <v>0.0205</v>
       </c>
       <c r="E785" t="n">
         <v>13.32</v>
@@ -19294,7 +19294,7 @@
         <v>1362</v>
       </c>
       <c r="D786" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="E786" t="n">
         <v>9.970000000000001</v>
@@ -19318,7 +19318,7 @@
         <v>1111</v>
       </c>
       <c r="D787" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="E787" t="n">
         <v>9.1</v>
@@ -19342,7 +19342,7 @@
         <v>2161</v>
       </c>
       <c r="D788" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="E788" t="n">
         <v>27.27</v>
@@ -19366,7 +19366,7 @@
         <v>1667</v>
       </c>
       <c r="D789" t="n">
-        <v>1.32</v>
+        <v>0.0132</v>
       </c>
       <c r="E789" t="n">
         <v>26.24</v>
@@ -19390,7 +19390,7 @@
         <v>716</v>
       </c>
       <c r="D790" t="n">
-        <v>3.07</v>
+        <v>0.0307</v>
       </c>
       <c r="E790" t="n">
         <v>5.67</v>
@@ -19414,7 +19414,7 @@
         <v>672</v>
       </c>
       <c r="D791" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="E791" t="n">
         <v>10.88</v>
@@ -19438,7 +19438,7 @@
         <v>666</v>
       </c>
       <c r="D792" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="E792" t="n">
         <v>17.32</v>
@@ -19462,7 +19462,7 @@
         <v>638</v>
       </c>
       <c r="D793" t="n">
-        <v>3.45</v>
+        <v>0.0345</v>
       </c>
       <c r="E793" t="n">
         <v>17.83</v>
@@ -19486,7 +19486,7 @@
         <v>1481</v>
       </c>
       <c r="D794" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="E794" t="n">
         <v>20.36</v>
@@ -19510,7 +19510,7 @@
         <v>1332</v>
       </c>
       <c r="D795" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="E795" t="n">
         <v>20.62</v>
@@ -19534,7 +19534,7 @@
         <v>2265</v>
       </c>
       <c r="D796" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="E796" t="n">
         <v>34.92</v>
@@ -19558,7 +19558,7 @@
         <v>1449</v>
       </c>
       <c r="D797" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="E797" t="n">
         <v>14.15</v>
@@ -19582,7 +19582,7 @@
         <v>1431</v>
       </c>
       <c r="D798" t="n">
-        <v>1.33</v>
+        <v>0.0133</v>
       </c>
       <c r="E798" t="n">
         <v>17.18</v>
@@ -19606,7 +19606,7 @@
         <v>1297</v>
       </c>
       <c r="D799" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="E799" t="n">
         <v>25.15</v>
@@ -19630,7 +19630,7 @@
         <v>2038</v>
       </c>
       <c r="D800" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="E800" t="n">
         <v>27.47</v>
@@ -19654,7 +19654,7 @@
         <v>1561</v>
       </c>
       <c r="D801" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="E801" t="n">
         <v>33.83</v>
@@ -19678,7 +19678,7 @@
         <v>4848</v>
       </c>
       <c r="D802" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="E802" t="n">
         <v>37.4</v>
@@ -19702,7 +19702,7 @@
         <v>488</v>
       </c>
       <c r="D803" t="n">
-        <v>3.48</v>
+        <v>0.0348</v>
       </c>
       <c r="E803" t="n">
         <v>12.38</v>
@@ -19726,7 +19726,7 @@
         <v>1949</v>
       </c>
       <c r="D804" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="E804" t="n">
         <v>35.14</v>
@@ -19750,7 +19750,7 @@
         <v>1055</v>
       </c>
       <c r="D805" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="E805" t="n">
         <v>28.84</v>
@@ -19774,7 +19774,7 @@
         <v>7263</v>
       </c>
       <c r="D806" t="n">
-        <v>0.19</v>
+        <v>0.0019</v>
       </c>
       <c r="E806" t="n">
         <v>41.38</v>
@@ -19798,7 +19798,7 @@
         <v>1828</v>
       </c>
       <c r="D807" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="E807" t="n">
         <v>35.97</v>
@@ -19822,7 +19822,7 @@
         <v>1829</v>
       </c>
       <c r="D808" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="E808" t="n">
         <v>37.96</v>
@@ -19846,7 +19846,7 @@
         <v>1476</v>
       </c>
       <c r="D809" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="E809" t="n">
         <v>27.83</v>
@@ -19870,7 +19870,7 @@
         <v>920</v>
       </c>
       <c r="D810" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E810" t="n">
         <v>31.95</v>
@@ -19894,7 +19894,7 @@
         <v>779</v>
       </c>
       <c r="D811" t="n">
-        <v>1.54</v>
+        <v>0.0154</v>
       </c>
       <c r="E811" t="n">
         <v>23.29</v>
@@ -19918,7 +19918,7 @@
         <v>757</v>
       </c>
       <c r="D812" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="E812" t="n">
         <v>11.29</v>
@@ -19942,7 +19942,7 @@
         <v>1851</v>
       </c>
       <c r="D813" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="E813" t="n">
         <v>24.77</v>
@@ -19966,7 +19966,7 @@
         <v>390</v>
       </c>
       <c r="D814" t="n">
-        <v>2.82</v>
+        <v>0.0282</v>
       </c>
       <c r="E814" t="n">
         <v>13.03</v>
@@ -19990,7 +19990,7 @@
         <v>1737</v>
       </c>
       <c r="D815" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="E815" t="n">
         <v>39.74</v>
@@ -20014,7 +20014,7 @@
         <v>619</v>
       </c>
       <c r="D816" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="E816" t="n">
         <v>11.88</v>
@@ -20038,7 +20038,7 @@
         <v>754</v>
       </c>
       <c r="D817" t="n">
-        <v>1.19</v>
+        <v>0.0119</v>
       </c>
       <c r="E817" t="n">
         <v>36.55</v>
@@ -20062,7 +20062,7 @@
         <v>653</v>
       </c>
       <c r="D818" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="E818" t="n">
         <v>17.38</v>
@@ -20086,7 +20086,7 @@
         <v>533</v>
       </c>
       <c r="D819" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="E819" t="n">
         <v>17.66</v>
@@ -20110,7 +20110,7 @@
         <v>1270</v>
       </c>
       <c r="D820" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="E820" t="n">
         <v>31.52</v>
@@ -20134,7 +20134,7 @@
         <v>616</v>
       </c>
       <c r="D821" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="E821" t="n">
         <v>20.23</v>
@@ -20158,7 +20158,7 @@
         <v>202</v>
       </c>
       <c r="D822" t="n">
-        <v>3.96</v>
+        <v>0.0396</v>
       </c>
       <c r="E822" t="n">
         <v>16.63</v>
@@ -20182,7 +20182,7 @@
         <v>1258</v>
       </c>
       <c r="D823" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.0056</v>
       </c>
       <c r="E823" t="n">
         <v>37.15</v>
@@ -20206,7 +20206,7 @@
         <v>942</v>
       </c>
       <c r="D824" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="E824" t="n">
         <v>27.87</v>
@@ -20230,7 +20230,7 @@
         <v>404</v>
       </c>
       <c r="D825" t="n">
-        <v>1.73</v>
+        <v>0.0173</v>
       </c>
       <c r="E825" t="n">
         <v>18.87</v>
@@ -20254,7 +20254,7 @@
         <v>401</v>
       </c>
       <c r="D826" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="E826" t="n">
         <v>31.26</v>
@@ -20278,7 +20278,7 @@
         <v>280</v>
       </c>
       <c r="D827" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="E827" t="n">
         <v>9.1</v>
@@ -20302,7 +20302,7 @@
         <v>229</v>
       </c>
       <c r="D828" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="E828" t="n">
         <v>27.71</v>
@@ -20326,7 +20326,7 @@
         <v>197</v>
       </c>
       <c r="D829" t="n">
-        <v>3.55</v>
+        <v>0.0355</v>
       </c>
       <c r="E829" t="n">
         <v>20.41</v>
@@ -20350,7 +20350,7 @@
         <v>57</v>
       </c>
       <c r="D830" t="n">
-        <v>12.28</v>
+        <v>0.1228</v>
       </c>
       <c r="E830" t="n">
         <v>12.05</v>
@@ -20374,7 +20374,7 @@
         <v>1497</v>
       </c>
       <c r="D831" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="E831" t="n">
         <v>34.22</v>
@@ -20398,7 +20398,7 @@
         <v>858</v>
       </c>
       <c r="D832" t="n">
-        <v>0.7</v>
+        <v>0.007</v>
       </c>
       <c r="E832" t="n">
         <v>36.6</v>
@@ -20422,7 +20422,7 @@
         <v>292</v>
       </c>
       <c r="D833" t="n">
-        <v>2.05</v>
+        <v>0.0205</v>
       </c>
       <c r="E833" t="n">
         <v>21.61</v>
@@ -20446,7 +20446,7 @@
         <v>250</v>
       </c>
       <c r="D834" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E834" t="n">
         <v>13.91</v>
@@ -20470,7 +20470,7 @@
         <v>2136</v>
       </c>
       <c r="D835" t="n">
-        <v>0.19</v>
+        <v>0.0019</v>
       </c>
       <c r="E835" t="n">
         <v>39.55</v>
@@ -20494,7 +20494,7 @@
         <v>1246</v>
       </c>
       <c r="D836" t="n">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E836" t="n">
         <v>32.72</v>
@@ -20518,7 +20518,7 @@
         <v>256</v>
       </c>
       <c r="D837" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E837" t="n">
         <v>25.62</v>
@@ -20542,7 +20542,7 @@
         <v>225</v>
       </c>
       <c r="D838" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="E838" t="n">
         <v>14.84</v>
@@ -20566,7 +20566,7 @@
         <v>192</v>
       </c>
       <c r="D839" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="E839" t="n">
         <v>9.699999999999999</v>
@@ -20590,7 +20590,7 @@
         <v>151</v>
       </c>
       <c r="D840" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="E840" t="n">
         <v>16.33</v>
@@ -20614,7 +20614,7 @@
         <v>77</v>
       </c>
       <c r="D841" t="n">
-        <v>5.19</v>
+        <v>0.0519</v>
       </c>
       <c r="E841" t="n">
         <v>19.18</v>
@@ -20638,7 +20638,7 @@
         <v>327</v>
       </c>
       <c r="D842" t="n">
-        <v>0.92</v>
+        <v>0.0092</v>
       </c>
       <c r="E842" t="n">
         <v>32.29</v>
@@ -20662,7 +20662,7 @@
         <v>186</v>
       </c>
       <c r="D843" t="n">
-        <v>1.61</v>
+        <v>0.0161</v>
       </c>
       <c r="E843" t="n">
         <v>19.59</v>
@@ -20686,7 +20686,7 @@
         <v>78</v>
       </c>
       <c r="D844" t="n">
-        <v>3.85</v>
+        <v>0.0385</v>
       </c>
       <c r="E844" t="n">
         <v>13.49</v>
@@ -20710,7 +20710,7 @@
         <v>1524</v>
       </c>
       <c r="D845" t="n">
-        <v>0.13</v>
+        <v>0.0013</v>
       </c>
       <c r="E845" t="n">
         <v>35.82</v>
@@ -20734,7 +20734,7 @@
         <v>588</v>
       </c>
       <c r="D846" t="n">
-        <v>0.34</v>
+        <v>0.0034</v>
       </c>
       <c r="E846" t="n">
         <v>34.68</v>
@@ -20758,7 +20758,7 @@
         <v>371</v>
       </c>
       <c r="D847" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="E847" t="n">
         <v>12.17</v>
@@ -20782,7 +20782,7 @@
         <v>236</v>
       </c>
       <c r="D848" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="E848" t="n">
         <v>25.63</v>
@@ -20806,7 +20806,7 @@
         <v>316</v>
       </c>
       <c r="D849" t="n">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="E849" t="n">
         <v>37.46</v>
@@ -20830,7 +20830,7 @@
         <v>295</v>
       </c>
       <c r="D850" t="n">
-        <v>0.34</v>
+        <v>0.0034</v>
       </c>
       <c r="E850" t="n">
         <v>36.89</v>
@@ -20854,7 +20854,7 @@
         <v>137</v>
       </c>
       <c r="D851" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="E851" t="n">
         <v>12.77</v>
@@ -20878,7 +20878,7 @@
         <v>126</v>
       </c>
       <c r="D852" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="E852" t="n">
         <v>13.13</v>
@@ -20902,7 +20902,7 @@
         <v>89</v>
       </c>
       <c r="D853" t="n">
-        <v>1.12</v>
+        <v>0.0112</v>
       </c>
       <c r="E853" t="n">
         <v>17.39</v>
@@ -20926,7 +20926,7 @@
         <v>82</v>
       </c>
       <c r="D854" t="n">
-        <v>1.22</v>
+        <v>0.0122</v>
       </c>
       <c r="E854" t="n">
         <v>37.21</v>
@@ -20950,7 +20950,7 @@
         <v>79</v>
       </c>
       <c r="D855" t="n">
-        <v>1.27</v>
+        <v>0.0127</v>
       </c>
       <c r="E855" t="n">
         <v>17.66</v>
@@ -20974,7 +20974,7 @@
         <v>69</v>
       </c>
       <c r="D856" t="n">
-        <v>1.45</v>
+        <v>0.0145</v>
       </c>
       <c r="E856" t="n">
         <v>9.699999999999999</v>
@@ -20998,7 +20998,7 @@
         <v>64</v>
       </c>
       <c r="D857" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="E857" t="n">
         <v>21.91</v>
@@ -21022,7 +21022,7 @@
         <v>44</v>
       </c>
       <c r="D858" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="E858" t="n">
         <v>10.98</v>
@@ -21046,7 +21046,7 @@
         <v>27</v>
       </c>
       <c r="D859" t="n">
-        <v>3.7</v>
+        <v>0.037</v>
       </c>
       <c r="E859" t="n">
         <v>6.11</v>
@@ -21070,7 +21070,7 @@
         <v>20</v>
       </c>
       <c r="D860" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="E860" t="n">
         <v>12.55</v>
@@ -21094,7 +21094,7 @@
         <v>15</v>
       </c>
       <c r="D861" t="n">
-        <v>6.67</v>
+        <v>0.0667</v>
       </c>
       <c r="E861" t="n">
         <v>14.13</v>
@@ -21118,7 +21118,7 @@
         <v>9</v>
       </c>
       <c r="D862" t="n">
-        <v>11.11</v>
+        <v>0.1111</v>
       </c>
       <c r="E862" t="n">
         <v>15.78</v>
@@ -21142,7 +21142,7 @@
         <v>8</v>
       </c>
       <c r="D863" t="n">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="E863" t="n">
         <v>9.119999999999999</v>
